--- a/SUMMARY SHEETS/glm_results.xlsx
+++ b/SUMMARY SHEETS/glm_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315BE3A4-EF84-3645-A24E-F8814A1EE934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF58963-9195-9C49-9FA0-142ECFF47B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="1120" windowWidth="28040" windowHeight="14300" activeTab="1" xr2:uid="{18C3824A-8AA6-D549-87E3-8BCC7E0A6946}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="82">
   <si>
     <t>glm formula</t>
   </si>
@@ -272,6 +272,18 @@
   <si>
     <t>Annual mean total leaf litter standing stock (CBOM+FBOM)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Reference stream annual production ~ Annual mean chlorophyll-a standing stock </t>
+  </si>
+  <si>
+    <t>Mid-SC stream annual production ~ Annual mean chlorophyll-a standing stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-SC stream annual production ~ Annual mean chlorophyll-a standing stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual chlorophyll-a standing stock </t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,12 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4469,8 +4476,8 @@
   <dimension ref="A1:S199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4587,41 +4594,41 @@
       <c r="K3" s="24"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" s="32" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15">
         <v>-2.6256615385000002</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="15">
         <v>0.60404893739999999</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="15">
         <v>-4.3467696</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="15">
         <v>3.3681085E-3</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="15">
         <v>18.21322</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="15">
         <v>17.240292</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="15">
         <v>-18.230699999999999</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="6">
         <v>8</v>
       </c>
     </row>
@@ -4650,7 +4657,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -7949,25 +7956,79 @@
       <c r="Q105" s="25"/>
       <c r="R105" s="25"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+    <row r="106" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="6">
+        <v>-2.2103999999999999</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.62134290000000003</v>
+      </c>
+      <c r="G106" s="6">
+        <v>-3.557455</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.17445181000000001</v>
+      </c>
+      <c r="I106" s="6">
+        <v>70.584599999999995</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0.25695770000000001</v>
+      </c>
+      <c r="K106" s="6">
+        <v>7.1412620000000002</v>
+      </c>
+      <c r="L106" s="6">
+        <v>28</v>
+      </c>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
+    <row r="107" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107" s="7">
+        <v>5024.015058</v>
+      </c>
+      <c r="F107" s="7">
+        <v>303.68174090000002</v>
+      </c>
+      <c r="G107" s="7">
+        <v>16.543685</v>
+      </c>
+      <c r="H107" s="7">
+        <v>3.8434370000000002E-2</v>
+      </c>
+      <c r="I107" s="7">
+        <v>70.584599999999995</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0.25695770000000001</v>
+      </c>
+      <c r="K107" s="7">
+        <v>7.1412620000000002</v>
+      </c>
+      <c r="L107" s="9"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
@@ -7975,12 +8036,43 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G108" s="1"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
+    <row r="108" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="6">
+        <v>-3.4433289999999999</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1.1188454000000001</v>
+      </c>
+      <c r="G108" s="6">
+        <v>-3.0775730000000001</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0.20000671</v>
+      </c>
+      <c r="I108" s="6">
+        <v>223.88980000000001</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1.2466735</v>
+      </c>
+      <c r="K108" s="6">
+        <v>11.879231000000001</v>
+      </c>
+      <c r="L108" s="5">
+        <v>28</v>
+      </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
@@ -7988,12 +8080,35 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G109" s="1"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
+    <row r="109" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="7">
+        <v>5856.8882240000003</v>
+      </c>
+      <c r="F109" s="7">
+        <v>438.26689699999997</v>
+      </c>
+      <c r="G109" s="7">
+        <v>13.363747999999999</v>
+      </c>
+      <c r="H109" s="7">
+        <v>4.75492E-2</v>
+      </c>
+      <c r="I109" s="7">
+        <v>223.88980000000001</v>
+      </c>
+      <c r="J109" s="7">
+        <v>1.2466735</v>
+      </c>
+      <c r="K109" s="7">
+        <v>11.879231000000001</v>
+      </c>
+      <c r="L109" s="9"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
@@ -8001,11 +8116,43 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
+    <row r="110" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="6">
+        <v>-49.327646999999999</v>
+      </c>
+      <c r="F110" s="6">
+        <v>7.0691895000000002</v>
+      </c>
+      <c r="G110" s="6">
+        <v>-6.9778359999999999</v>
+      </c>
+      <c r="H110" s="6">
+        <v>9.0617550000000005E-2</v>
+      </c>
+      <c r="I110" s="6">
+        <v>314.12889999999999</v>
+      </c>
+      <c r="J110" s="6">
+        <v>3.6746094</v>
+      </c>
+      <c r="K110" s="6">
+        <v>15.122135</v>
+      </c>
+      <c r="L110" s="5">
+        <v>28</v>
+      </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
@@ -8013,11 +8160,35 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
+    <row r="111" spans="1:18" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="22">
+        <v>17893.740602000002</v>
+      </c>
+      <c r="F111" s="22">
+        <v>1946.7397598</v>
+      </c>
+      <c r="G111" s="22">
+        <v>9.1916449999999994</v>
+      </c>
+      <c r="H111" s="22">
+        <v>6.898936E-2</v>
+      </c>
+      <c r="I111" s="22">
+        <v>314.12889999999999</v>
+      </c>
+      <c r="J111" s="22">
+        <v>3.6746094</v>
+      </c>
+      <c r="K111" s="22">
+        <v>15.122135</v>
+      </c>
+      <c r="L111" s="25"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
@@ -8123,13 +8294,166 @@
     <row r="128" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G129" s="1"/>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5">
+        <v>-2.2103999999999999</v>
+      </c>
+      <c r="K133" s="5">
+        <v>0.62134290000000003</v>
+      </c>
+      <c r="L133" s="5">
+        <v>-3.557455</v>
+      </c>
+      <c r="M133" s="5">
+        <v>0.17445181000000001</v>
+      </c>
+      <c r="N133" s="5">
+        <v>70.584599999999995</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0.25695770000000001</v>
+      </c>
+      <c r="P133" s="5">
+        <v>7.1412620000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5">
+        <v>5024.015058</v>
+      </c>
+      <c r="K134" s="5">
+        <v>303.68174090000002</v>
+      </c>
+      <c r="L134" s="5">
+        <v>16.543685</v>
+      </c>
+      <c r="M134" s="5">
+        <v>3.8434370000000002E-2</v>
+      </c>
+      <c r="N134" s="5">
+        <v>70.584599999999995</v>
+      </c>
+      <c r="O134" s="5">
+        <v>0.25695770000000001</v>
+      </c>
+      <c r="P134" s="5">
+        <v>7.1412620000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5">
+        <v>-3.4433289999999999</v>
+      </c>
+      <c r="K135" s="5">
+        <v>1.1188454000000001</v>
+      </c>
+      <c r="L135" s="5">
+        <v>-3.0775730000000001</v>
+      </c>
+      <c r="M135" s="5">
+        <v>0.20000671</v>
+      </c>
+      <c r="N135" s="5">
+        <v>223.88980000000001</v>
+      </c>
+      <c r="O135" s="5">
+        <v>1.2466735</v>
+      </c>
+      <c r="P135" s="5">
+        <v>11.879231000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5">
+        <v>5856.8882240000003</v>
+      </c>
+      <c r="K136" s="5">
+        <v>438.26689699999997</v>
+      </c>
+      <c r="L136" s="5">
+        <v>13.363747999999999</v>
+      </c>
+      <c r="M136" s="5">
+        <v>4.75492E-2</v>
+      </c>
+      <c r="N136" s="5">
+        <v>223.88980000000001</v>
+      </c>
+      <c r="O136" s="5">
+        <v>1.2466735</v>
+      </c>
+      <c r="P136" s="5">
+        <v>11.879231000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5">
+        <v>-49.327646999999999</v>
+      </c>
+      <c r="K137" s="5">
+        <v>7.0691895000000002</v>
+      </c>
+      <c r="L137" s="5">
+        <v>-6.9778359999999999</v>
+      </c>
+      <c r="M137" s="5">
+        <v>9.0617550000000005E-2</v>
+      </c>
+      <c r="N137" s="5">
+        <v>314.12889999999999</v>
+      </c>
+      <c r="O137" s="5">
+        <v>3.6746094</v>
+      </c>
+      <c r="P137" s="5">
+        <v>15.122135</v>
+      </c>
+    </row>
+    <row r="138" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5">
+        <v>17893.740602000002</v>
+      </c>
+      <c r="K138" s="5">
+        <v>1946.7397598</v>
+      </c>
+      <c r="L138" s="5">
+        <v>9.1916449999999994</v>
+      </c>
+      <c r="M138" s="5">
+        <v>6.898936E-2</v>
+      </c>
+      <c r="N138" s="5">
+        <v>314.12889999999999</v>
+      </c>
+      <c r="O138" s="5">
+        <v>3.6746094</v>
+      </c>
+      <c r="P138" s="5">
+        <v>15.122135</v>
+      </c>
+    </row>
+    <row r="139" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G139" s="1"/>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.2">

--- a/SUMMARY SHEETS/glm_results.xlsx
+++ b/SUMMARY SHEETS/glm_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70667B4A-5742-DD4F-9EAD-8289CEC08253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEC05D4-04DE-BE41-9240-BA754E8623B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1320" windowWidth="28060" windowHeight="14320" firstSheet="1" activeTab="1" xr2:uid="{18C3824A-8AA6-D549-87E3-8BCC7E0A6946}"/>
+    <workbookView xWindow="740" yWindow="1320" windowWidth="28060" windowHeight="14320" firstSheet="3" activeTab="3" xr2:uid="{18C3824A-8AA6-D549-87E3-8BCC7E0A6946}"/>
   </bookViews>
   <sheets>
     <sheet name="original totals" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="chl-a ffg AIC comparison" sheetId="4" r:id="rId14"/>
     <sheet name="prod FFG AIC comparison" sheetId="5" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,17 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -582,34 +577,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6528,59 +6506,57 @@
       <c r="G139" s="1"/>
     </row>
     <row r="146" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="L146" s="28"/>
-      <c r="M146" s="28"/>
-      <c r="N146" s="30" t="s">
+      <c r="N146" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="O146" s="30" t="s">
+      <c r="O146" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="P146" s="30" t="s">
+      <c r="P146" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="Q146" s="30" t="s">
+      <c r="Q146" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="R146" s="30" t="s">
+      <c r="R146" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="S146" s="30" t="s">
+      <c r="S146" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="T146" s="30" t="s">
+      <c r="T146" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="U146" s="30" t="s">
+      <c r="U146" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="147" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="L147" s="30"/>
-      <c r="M147" s="30" t="s">
+      <c r="L147" s="28"/>
+      <c r="M147" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N147" s="30"/>
-      <c r="O147" s="30"/>
-      <c r="P147" s="30"/>
-      <c r="Q147" s="30"/>
-      <c r="R147" s="30"/>
-      <c r="S147" s="30"/>
-      <c r="T147" s="30"/>
-      <c r="U147" s="30"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="28"/>
+      <c r="P147" s="28"/>
+      <c r="Q147" s="28"/>
+      <c r="R147" s="28"/>
+      <c r="S147" s="28"/>
+      <c r="T147" s="28"/>
+      <c r="U147" s="28"/>
     </row>
     <row r="148" spans="7:21" x14ac:dyDescent="0.2">
       <c r="G148" s="1"/>
-      <c r="L148" s="30"/>
-      <c r="M148" s="30"/>
-      <c r="N148" s="30"/>
-      <c r="O148" s="30"/>
-      <c r="P148" s="30"/>
-      <c r="Q148" s="30"/>
-      <c r="R148" s="30"/>
-      <c r="S148" s="30"/>
-      <c r="T148" s="30"/>
-      <c r="U148" s="30"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="28"/>
+      <c r="P148" s="28"/>
+      <c r="Q148" s="28"/>
+      <c r="R148" s="28"/>
+      <c r="S148" s="28"/>
+      <c r="T148" s="28"/>
+      <c r="U148" s="28"/>
     </row>
     <row r="149" spans="7:21" x14ac:dyDescent="0.2">
       <c r="G149" s="1"/>
@@ -7003,7 +6979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828EF143-1078-1E4B-A5B1-252BDED621C8}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K3" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
@@ -7052,37 +7028,37 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="D2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>375.18054000000001</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="48">
         <v>68.078569999999999</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>5.5110000000000001</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>8.9599999999999999E-4</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>129533</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="48">
         <v>128616</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <v>117.65</v>
       </c>
       <c r="L2" s="6">
@@ -7090,27 +7066,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>-2.256E-2</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="52">
         <v>0.10097</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="52">
         <v>-0.223</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="52">
         <v>0.82958600000000005</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -7135,7 +7111,7 @@
       <c r="G4">
         <v>31.291</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="35">
         <v>8.7899999999999996E-9</v>
       </c>
       <c r="I4">
@@ -7181,7 +7157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C991922E-7FAE-C343-8435-9E6B3F19E4DB}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K3" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
@@ -7229,37 +7205,37 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="D2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>9.3189094000000008</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="48">
         <v>0.1627055</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>57.274999999999999</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>1.2999999999999999E-10</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>2.0994799999999998</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="48">
         <v>0.85872000000000004</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <v>184.92</v>
       </c>
       <c r="L2" s="6">
@@ -7267,61 +7243,61 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>8.2629999999999997E-4</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="52">
         <v>2.4130000000000001E-4</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="52">
         <v>3.4239999999999999</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="52">
         <v>1.11E-2</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="43">
+      <c r="D4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="38">
         <v>10475.294</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="38">
         <v>3930.288</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="38">
         <v>2.6549999999999998</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="38">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="38">
         <v>842368711</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="38">
         <v>428669387</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="38">
         <v>190.65</v>
       </c>
     </row>
@@ -7358,7 +7334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2CF0B1-E0DB-3148-A62F-AD2A27250F15}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K5" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
@@ -7468,65 +7444,65 @@
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="66">
+      <c r="D4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="53">
         <v>-6.391</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="53">
         <v>0.29099999999999998</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="53">
         <v>-21.97</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="54">
         <v>1.02E-7</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="53">
         <v>3.2109999999999999</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="53">
         <v>2.3239999999999998</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="53">
         <v>-91.367000000000004</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="45">
         <v>0</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="45">
         <v>0</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="45">
         <v>1.595</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="45">
         <v>0.155</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -7541,7 +7517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71F647E-13DC-AE41-90ED-C357010C86C7}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="L3" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
@@ -7589,66 +7565,66 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="D2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>2.6543445000000001</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="48">
         <v>0.22543050000000001</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>11.775</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>7.2200000000000003E-6</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>5.5073999999999996</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="48">
         <v>1.5451999999999999</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <v>75.641000000000005</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>1.4836999999999999E-3</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="52">
         <v>3.3429999999999999E-4</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="52">
         <v>4.4370000000000003</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="52">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -7720,10 +7696,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695C2479-0811-C745-A063-C860D3F25315}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L13" sqref="A2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7735,7 +7711,7 @@
     <col min="12" max="12" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7773,403 +7749,379 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>-3.7695457999999999</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="48">
         <v>0.80797600000000003</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="48">
         <v>-4.6654178000000002</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="48">
         <v>2.2998279999999999E-3</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="48">
         <v>18.21322</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="48">
         <v>13.461728000000001</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="48">
         <v>-20.98901</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="41">
         <v>24</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="50">
         <v>513.36263480000002</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="50">
         <v>286.32081049999999</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="50">
         <v>1.7929630999999999</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="50">
         <v>0.116073523</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="48">
         <v>-1.0082314999999999</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="48">
         <v>1.0740692999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="48">
         <v>-0.9387025</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="48">
         <v>0.37913505400000003</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="48">
         <v>48.58099</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="48">
         <v>47.904420000000002</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="48">
         <v>-23.326650000000001</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="41">
         <v>24</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="50">
         <v>-221.40102569999999</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="50">
         <v>380.61573470000002</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="50">
         <v>-0.58169170000000003</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="50">
         <v>0.57901677500000004</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="48">
         <v>-1.7431331999999999</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="48">
         <v>0.68456019999999995</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="48">
         <v>-2.5463547000000002</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="48">
         <v>3.8306911999999999E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="48">
         <v>12.318</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="48">
         <v>9.5506689999999992</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="48">
         <v>12.59037</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="41">
         <v>24</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="50">
         <v>443.4879828</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="50">
         <v>242.58620859999999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="50">
         <v>1.8281665</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="50">
         <v>0.11024125</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="48">
         <v>-1.5352672000000001</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="48">
         <v>0.79047060000000002</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="48">
         <v>-1.9422192</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="48">
         <v>9.3229831999999999E-2</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="48">
         <v>22.27722</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="48">
         <v>13.178509</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="48">
         <v>26.37294</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="41">
         <v>24</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="50">
         <v>671.47618890000001</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="50">
         <v>280.11745380000002</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="50">
         <v>2.3971236999999999</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="50">
         <v>4.7667174999999999E-2</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="48">
         <v>-0.89386010000000005</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="48">
         <v>0.63647480000000001</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="48">
         <v>-1.4043920000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="48">
         <v>0.20298469599999999</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="48">
         <v>15.285729999999999</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="48">
         <v>9.4419380000000004</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="48">
         <v>34.372390000000003</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="41">
         <v>24</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="50">
         <v>588.49461599999995</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="50">
         <v>225.5462684</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="50">
         <v>2.6091969000000002</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="50">
         <v>3.4954160999999997E-2</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="1:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="48">
         <v>-0.91205530000000001</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="48">
         <v>0.61320470000000005</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="48">
         <v>-1.4873586000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="48">
         <v>0.18051706000000001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="48">
         <v>13.89528</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="48">
         <v>5.8689489999999997</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="48">
         <v>43.224060000000001</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="41">
         <v>24</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="52">
         <v>821.33736080000006</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="52">
         <v>217.30009699999999</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="52">
         <v>3.7797377000000001</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="52">
         <v>6.8946379999999998E-3</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -8206,10 +8158,8 @@
       <c r="L14" s="6">
         <v>24</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -8232,10 +8182,8 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -8272,10 +8220,8 @@
       <c r="L16" s="6">
         <v>24</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -8298,10 +8244,8 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>63</v>
       </c>
@@ -8338,10 +8282,8 @@
       <c r="L18" s="6">
         <v>24</v>
       </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-    </row>
-    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -8365,7 +8307,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
@@ -8403,7 +8345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -8427,7 +8369,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
@@ -8465,7 +8407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -8489,7 +8431,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>66</v>
       </c>
@@ -8527,7 +8469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -8615,376 +8557,376 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="D2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>-2.6256615385000002</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="48">
         <v>0.60404893739999999</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>-4.3467696</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>3.3681085E-3</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>18.21322</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="48">
         <v>17.240292</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <v>-18.230699999999999</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="50">
         <v>6.8539269999999997E-4</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="50">
         <v>8.958999E-4</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="50">
         <v>0.76503270000000001</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="50">
         <v>0.46925401290000002</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="54"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="53">
+      <c r="D4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="48">
         <v>-0.17497242239999999</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="48">
         <v>0.61055134590000004</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="48">
         <v>-0.28658099999999997</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="48">
         <v>0.78272971859999996</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="48">
         <v>48.58099</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="48">
         <v>18.111111999999999</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="48">
         <v>-35.375030000000002</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="50">
         <v>-6.0283877000000003E-3</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="50">
         <v>9.0554399999999999E-4</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="50">
         <v>-6.6572003999999998</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="50">
         <v>2.8859719999999999E-4</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="53">
+      <c r="D6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.14886219349999999</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="48">
         <v>0.53790612419999995</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="48">
         <v>0.27674379999999998</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="48">
         <v>0.78997029679999997</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="48">
         <v>12.318</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="48">
         <v>8.5322560000000003</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="48">
         <v>11.418369999999999</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="50">
         <v>-1.6717438999999999E-3</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="50">
         <v>7.9779969999999999E-4</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="50">
         <v>-2.0954432000000001</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="50">
         <v>7.4369901700000005E-2</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="54"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="53">
+      <c r="D8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="48">
         <v>-0.25693639619999997</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="48">
         <v>0.6426750323</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="48">
         <v>-0.39979209999999998</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="48">
         <v>0.70122792209999996</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="48">
         <v>22.27722</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="48">
         <v>18.509549</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="48">
         <v>30.174949999999999</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="50">
         <v>1.3712939999999999E-3</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="50">
         <v>9.5318849999999995E-4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="50">
         <v>1.4386388999999999</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="50">
         <v>0.1934225309</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="54"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="53">
+      <c r="D10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="48">
         <v>0.4783858117</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="48">
         <v>0.74512300419999999</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="48">
         <v>0.6420226</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="48">
         <v>0.54130489660000003</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="48">
         <v>15.285729999999999</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="48">
         <v>14.454687</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="48">
         <v>38.947310000000002</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="50">
         <v>7.3988340000000002E-4</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="50">
         <v>1.1051349999999999E-3</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="50">
         <v>0.66949599999999998</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="50">
         <v>0.52463937810000005</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="54"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="53">
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="48">
         <v>1.020823606</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="48">
         <v>0.61034278350000004</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="48">
         <v>1.6725414999999999</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="48">
         <v>0.13833609099999999</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="48">
         <v>13.89528</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="48">
         <v>12.158467</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="48">
         <v>50.749740000000003</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="52">
         <v>9.1971030000000001E-4</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="52">
         <v>9.0523459999999997E-4</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="52">
         <v>1.0159910999999999</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="52">
         <v>0.34345672090000001</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="50"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -9020,7 +8962,7 @@
       <c r="K14" s="14">
         <v>-6.4722220000000004</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="32">
         <v>8</v>
       </c>
     </row>
@@ -9043,10 +8985,10 @@
       <c r="H15" s="15">
         <v>0.42723844</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="35"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -9058,31 +9000,31 @@
       <c r="C16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="D16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="33">
         <v>0.43942829999999999</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="33">
         <v>0.14231347559999999</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="33">
         <v>3.0877490000000001</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="33">
         <v>1.7622579999999999E-2</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="33">
         <v>0.90893250000000003</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="33">
         <v>0.56203820000000004</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="14">
         <v>6.5802040000000002</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="32">
         <v>8</v>
       </c>
     </row>
@@ -9108,7 +9050,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="36"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -9144,7 +9086,7 @@
       <c r="K18" s="14">
         <v>24.238399999999999</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="32">
         <v>8</v>
       </c>
     </row>
@@ -9170,7 +9112,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="35"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -9182,31 +9124,31 @@
       <c r="C20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="33">
         <v>0.43044179999999999</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="33">
         <v>1.5880179863999999</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="33">
         <v>0.27105600000000002</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="33">
         <v>0.79416699999999996</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="33">
         <v>85.367256299999994</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="33">
         <v>69.981724499999999</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="14">
         <v>49.999980000000001</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="32">
         <v>8</v>
       </c>
     </row>
@@ -9271,11 +9213,10 @@
       <c r="L22" s="6">
         <v>8</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="28"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
@@ -9300,11 +9241,10 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="28"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -9316,38 +9256,38 @@
       <c r="C24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="D24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="33">
         <v>2.2718959999999999</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="33">
         <v>2.3129372943000002</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="33">
         <v>0.98225560000000001</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="33">
         <v>0.35869673000000002</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="33">
         <v>195.9379745</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="33">
         <v>148.45728829999999</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="14">
         <v>56.768548000000003</v>
       </c>
       <c r="L24" s="6">
         <v>8</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
@@ -9372,197 +9312,194 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="53" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I53" s="28"/>
-      <c r="J53" s="29" t="s">
+      <c r="J53" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="K53" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="L53" s="29" t="s">
+      <c r="L53" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="M53" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="N53" s="29" t="s">
+      <c r="N53" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="O53" s="29" t="s">
+      <c r="O53" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="P53" s="29" t="s">
+      <c r="P53" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="Q53" s="29" t="s">
+      <c r="Q53" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R53" s="28"/>
     </row>
     <row r="54" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="28"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
     </row>
     <row r="55" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
     </row>
     <row r="56" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I56" s="5">
@@ -9574,25 +9511,25 @@
       <c r="K56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="33">
+      <c r="L56" s="29">
         <v>6.4523330000000004E-2</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M56" s="29">
         <v>6.8916624699999998E-2</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="29">
         <v>0.93625210000000003</v>
       </c>
-      <c r="O56" s="33">
+      <c r="O56" s="29">
         <v>0.38031063999999998</v>
       </c>
-      <c r="P56" s="33">
+      <c r="P56" s="29">
         <v>0.14517369999999999</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="29">
         <v>0.1318019</v>
       </c>
-      <c r="R56" s="33">
+      <c r="R56" s="29">
         <v>-6.4722220000000004</v>
       </c>
     </row>
@@ -9606,25 +9543,25 @@
       <c r="K57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="29">
         <v>8.6137809999999994E-5</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="29">
         <v>1.0221419999999999E-4</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="29">
         <v>0.84271839999999998</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="29">
         <v>0.42723844</v>
       </c>
-      <c r="P57" s="33">
+      <c r="P57" s="29">
         <v>0.14517369999999999</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="29">
         <v>0.1318019</v>
       </c>
-      <c r="R57" s="33">
+      <c r="R57" s="29">
         <v>-6.4722220000000004</v>
       </c>
     </row>
@@ -9638,25 +9575,25 @@
       <c r="K58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="29">
         <v>0.43942829999999999</v>
       </c>
-      <c r="M58" s="33">
+      <c r="M58" s="29">
         <v>0.14231347559999999</v>
       </c>
-      <c r="N58" s="33">
+      <c r="N58" s="29">
         <v>3.0877490000000001</v>
       </c>
-      <c r="O58" s="33">
+      <c r="O58" s="29">
         <v>1.7622579999999999E-2</v>
       </c>
-      <c r="P58" s="33">
+      <c r="P58" s="29">
         <v>0.90893250000000003</v>
       </c>
-      <c r="Q58" s="33">
+      <c r="Q58" s="29">
         <v>0.56203820000000004</v>
       </c>
-      <c r="R58" s="33">
+      <c r="R58" s="29">
         <v>6.5802040000000002</v>
       </c>
     </row>
@@ -9670,25 +9607,25 @@
       <c r="K59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="29">
         <v>-4.3873069999999999E-4</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M59" s="29">
         <v>2.1107330000000001E-4</v>
       </c>
-      <c r="N59" s="33">
+      <c r="N59" s="29">
         <v>-2.07857</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="29">
         <v>7.6245939999999998E-2</v>
       </c>
-      <c r="P59" s="33">
+      <c r="P59" s="29">
         <v>0.90893250000000003</v>
       </c>
-      <c r="Q59" s="33">
+      <c r="Q59" s="29">
         <v>0.56203820000000004</v>
       </c>
-      <c r="R59" s="33">
+      <c r="R59" s="29">
         <v>6.5802040000000002</v>
       </c>
     </row>
@@ -9702,25 +9639,25 @@
       <c r="K60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L60" s="33">
+      <c r="L60" s="29">
         <v>0.96597659999999996</v>
       </c>
-      <c r="M60" s="33">
+      <c r="M60" s="29">
         <v>0.37957154409999999</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="29">
         <v>2.5449131999999999</v>
       </c>
-      <c r="O60" s="33">
+      <c r="O60" s="29">
         <v>3.8387619999999997E-2</v>
       </c>
-      <c r="P60" s="33">
+      <c r="P60" s="29">
         <v>4.8642655000000001</v>
       </c>
-      <c r="Q60" s="33">
+      <c r="Q60" s="29">
         <v>3.9981686000000001</v>
       </c>
-      <c r="R60" s="33">
+      <c r="R60" s="29">
         <v>24.238399999999999</v>
       </c>
     </row>
@@ -9734,25 +9671,25 @@
       <c r="K61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="29">
         <v>-6.9323859999999998E-4</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="29">
         <v>5.6296449999999995E-4</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="29">
         <v>-1.2314073000000001</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="29">
         <v>0.2579322</v>
       </c>
-      <c r="P61" s="33">
+      <c r="P61" s="29">
         <v>4.8642655000000001</v>
       </c>
-      <c r="Q61" s="33">
+      <c r="Q61" s="29">
         <v>3.9981686000000001</v>
       </c>
-      <c r="R61" s="33">
+      <c r="R61" s="29">
         <v>24.238399999999999</v>
       </c>
     </row>
@@ -9766,25 +9703,25 @@
       <c r="K62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="29">
         <v>0.43044179999999999</v>
       </c>
-      <c r="M62" s="33">
+      <c r="M62" s="29">
         <v>1.5880179863999999</v>
       </c>
-      <c r="N62" s="33">
+      <c r="N62" s="29">
         <v>0.27105600000000002</v>
       </c>
-      <c r="O62" s="33">
+      <c r="O62" s="29">
         <v>0.79416699999999996</v>
       </c>
-      <c r="P62" s="33">
+      <c r="P62" s="29">
         <v>85.367256299999994</v>
       </c>
-      <c r="Q62" s="33">
+      <c r="Q62" s="29">
         <v>69.981724499999999</v>
       </c>
-      <c r="R62" s="33">
+      <c r="R62" s="29">
         <v>49.999980000000001</v>
       </c>
     </row>
@@ -9798,25 +9735,25 @@
       <c r="K63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="29">
         <v>2.9218349999999998E-3</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="29">
         <v>2.3552811999999999E-3</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="29">
         <v>1.2405462</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="29">
         <v>0.25473731999999999</v>
       </c>
-      <c r="P63" s="33">
+      <c r="P63" s="29">
         <v>85.367256299999994</v>
       </c>
-      <c r="Q63" s="33">
+      <c r="Q63" s="29">
         <v>69.981724499999999</v>
       </c>
-      <c r="R63" s="33">
+      <c r="R63" s="29">
         <v>49.999980000000001</v>
       </c>
     </row>
@@ -9830,25 +9767,25 @@
       <c r="K64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L64" s="33">
+      <c r="L64" s="29">
         <v>1.6659790000000001</v>
       </c>
-      <c r="M64" s="33">
+      <c r="M64" s="29">
         <v>1.5594871054999999</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N64" s="29">
         <v>1.0682867</v>
       </c>
-      <c r="O64" s="33">
+      <c r="O64" s="29">
         <v>0.32084107000000001</v>
       </c>
-      <c r="P64" s="33">
+      <c r="P64" s="29">
         <v>71.889105299999997</v>
       </c>
-      <c r="Q64" s="33">
+      <c r="Q64" s="29">
         <v>67.489682099999996</v>
       </c>
-      <c r="R64" s="33">
+      <c r="R64" s="29">
         <v>49.673645</v>
       </c>
     </row>
@@ -9862,25 +9799,25 @@
       <c r="K65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="33">
+      <c r="L65" s="29">
         <v>1.5624180000000001E-3</v>
       </c>
-      <c r="M65" s="33">
+      <c r="M65" s="29">
         <v>2.3129653999999999E-3</v>
       </c>
-      <c r="N65" s="33">
+      <c r="N65" s="29">
         <v>0.6755044</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="29">
         <v>0.52103785999999996</v>
       </c>
-      <c r="P65" s="33">
+      <c r="P65" s="29">
         <v>71.889105299999997</v>
       </c>
-      <c r="Q65" s="33">
+      <c r="Q65" s="29">
         <v>67.489682099999996</v>
       </c>
-      <c r="R65" s="33">
+      <c r="R65" s="29">
         <v>49.673645</v>
       </c>
     </row>
@@ -9894,25 +9831,25 @@
       <c r="K66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L66" s="33">
+      <c r="L66" s="29">
         <v>2.2718959999999999</v>
       </c>
-      <c r="M66" s="33">
+      <c r="M66" s="29">
         <v>2.3129372943000002</v>
       </c>
-      <c r="N66" s="33">
+      <c r="N66" s="29">
         <v>0.98225560000000001</v>
       </c>
-      <c r="O66" s="33">
+      <c r="O66" s="29">
         <v>0.35869673000000002</v>
       </c>
-      <c r="P66" s="33">
+      <c r="P66" s="29">
         <v>195.9379745</v>
       </c>
-      <c r="Q66" s="33">
+      <c r="Q66" s="29">
         <v>148.45728829999999</v>
       </c>
-      <c r="R66" s="33">
+      <c r="R66" s="29">
         <v>56.768548000000003</v>
       </c>
     </row>
@@ -9926,25 +9863,25 @@
       <c r="K67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L67" s="33">
+      <c r="L67" s="29">
         <v>5.1328429999999998E-3</v>
       </c>
-      <c r="M67" s="33">
+      <c r="M67" s="29">
         <v>3.4304509000000001E-3</v>
       </c>
-      <c r="N67" s="33">
+      <c r="N67" s="29">
         <v>1.4962588999999999</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="29">
         <v>0.1782455</v>
       </c>
-      <c r="P67" s="33">
+      <c r="P67" s="29">
         <v>195.9379745</v>
       </c>
-      <c r="Q67" s="33">
+      <c r="Q67" s="29">
         <v>148.45728829999999</v>
       </c>
-      <c r="R67" s="33">
+      <c r="R67" s="29">
         <v>56.768548000000003</v>
       </c>
     </row>
@@ -9972,7 +9909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90218CFC-3171-7A4A-AE61-41014C0B6B22}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -10031,25 +9968,25 @@
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="35">
         <v>1.8626427000000001</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="35">
         <v>0.45600380000000001</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="35">
         <v>4.085</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="35">
         <v>4.6600000000000001E-3</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="35">
         <v>7.0247000000000002</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="35">
         <v>5.8619000000000003</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="35">
         <v>63.356000000000002</v>
       </c>
     </row>
@@ -10060,901 +9997,897 @@
       <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="36">
         <v>7.7590000000000005E-4</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="36">
         <v>6.7630000000000001E-4</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="36">
         <v>1.147</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="36">
         <v>0.28897</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="60">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14">
         <v>-2.6256615385000002</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="14">
         <v>0.60404893739999999</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="14">
         <v>-4.3467696</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="14">
         <v>3.3681085E-3</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="14">
         <v>18.21322</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="14">
         <v>17.240292</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="14">
         <v>-18.230699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="15">
         <v>6.8539269999999997E-4</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="15">
         <v>8.958999E-4</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="15">
         <v>0.76503270000000001</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="15">
         <v>0.46925401290000002</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="60">
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14">
         <v>-0.17497242239999999</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="14">
         <v>0.61055134590000004</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="14">
         <v>-0.28658099999999997</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="14">
         <v>0.78272971859999996</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="14">
         <v>48.58099</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="14">
         <v>18.111111999999999</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="14">
         <v>-35.375030000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="15">
         <v>-6.0283877000000003E-3</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="15">
         <v>9.0554399999999999E-4</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="15">
         <v>-6.6572003999999998</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="15">
         <v>2.8859719999999999E-4</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="60">
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
         <v>0.14886219349999999</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="14">
         <v>0.53790612419999995</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="14">
         <v>0.27674379999999998</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="14">
         <v>0.78997029679999997</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="14">
         <v>12.318</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="14">
         <v>8.5322560000000003</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="14">
         <v>11.418369999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="15">
         <v>-1.6717438999999999E-3</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="15">
         <v>7.9779969999999999E-4</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="15">
         <v>-2.0954432000000001</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="15">
         <v>7.4369901700000005E-2</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="60">
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14">
         <v>-0.25693639619999997</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="14">
         <v>0.6426750323</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="14">
         <v>-0.39979209999999998</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="14">
         <v>0.70122792209999996</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="14">
         <v>22.27722</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="14">
         <v>18.509549</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="14">
         <v>30.174949999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="15">
         <v>1.3712939999999999E-3</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="15">
         <v>9.5318849999999995E-4</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="15">
         <v>1.4386388999999999</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="15">
         <v>0.1934225309</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="60">
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14">
         <v>0.4783858117</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="14">
         <v>0.74512300419999999</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="14">
         <v>0.6420226</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="14">
         <v>0.54130489660000003</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="14">
         <v>15.285729999999999</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="14">
         <v>14.454687</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="14">
         <v>38.947310000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="15">
         <v>7.3988340000000002E-4</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="15">
         <v>1.1051349999999999E-3</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="15">
         <v>0.66949599999999998</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="15">
         <v>0.52463937810000005</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="60">
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14">
         <v>1.020823606</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="14">
         <v>0.61034278350000004</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="14">
         <v>1.6725414999999999</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="14">
         <v>0.13833609099999999</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="14">
         <v>13.89528</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="14">
         <v>12.158467</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="14">
         <v>50.749740000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="23">
         <v>9.1971030000000001E-4</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="23">
         <v>9.0523459999999997E-4</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="23">
         <v>1.0159910999999999</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="23">
         <v>0.34345672090000001</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="60">
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14">
         <v>5.1379999999999999</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="14">
         <v>0.90639999999999998</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="14">
         <v>5.6680000000000001</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="14">
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="14">
         <v>22.8</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="14">
         <v>22.797000000000001</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="14">
         <v>39.905000000000001</v>
       </c>
-      <c r="L16" s="59"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="23">
         <v>4.2330000000000003E-5</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="23">
         <v>1.3439999999999999E-3</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="23">
         <v>0.97575999999999996</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="77"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="60">
+      <c r="D18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14">
         <v>375.18054000000001</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="14">
         <v>68.078569999999999</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="14">
         <v>5.5110000000000001</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="14">
         <v>8.9599999999999999E-4</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="14">
         <v>129533</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="14">
         <v>128616</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="14">
         <v>117.65</v>
       </c>
-      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="23">
         <v>-2.256E-2</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="23">
         <v>0.10097</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="23">
         <v>-0.223</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="23">
         <v>0.82958600000000005</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="60">
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14">
         <v>380.31808000000001</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="14">
         <v>68.586340000000007</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="14">
         <v>5.5449999999999999</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="14">
         <v>8.6399999999999997E-4</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="14">
         <v>131455</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="14">
         <v>130542</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="14">
         <v>117.78</v>
       </c>
-      <c r="L20" s="77"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="23">
         <v>-2.2519999999999998E-2</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="23">
         <v>0.10172</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="23">
         <v>-0.221</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="23">
         <v>0.83113599999999999</v>
       </c>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="77"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="60">
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="14">
         <v>2.6543445000000001</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="14">
         <v>0.22543050000000001</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="14">
         <v>11.775</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="14">
         <v>7.2200000000000003E-6</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="14">
         <v>5.5073999999999996</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="14">
         <v>1.5451999999999999</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="14">
         <v>75.641000000000005</v>
       </c>
-      <c r="L22" s="77"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="23">
         <v>1.4836999999999999E-3</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="23">
         <v>3.3429999999999999E-4</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="23">
         <v>4.4370000000000003</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="23">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="77"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="60">
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="14">
         <v>9.3189094000000008</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="14">
         <v>0.1627055</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="14">
         <v>57.274999999999999</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="14">
         <v>1.2999999999999999E-10</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="14">
         <v>2.0994799999999998</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="14">
         <v>0.85872000000000004</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="14">
         <v>184.92</v>
       </c>
-      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="23">
         <v>8.2629999999999997E-4</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="23">
         <v>2.4130000000000001E-4</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="23">
         <v>3.4239999999999999</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="23">
         <v>1.11E-2</v>
       </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="32"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="68">
+      <c r="D26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="37">
         <v>-6.391</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="37">
         <v>0.29099999999999998</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="37">
         <v>-21.97</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="55">
         <v>1.02E-7</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="37">
         <v>3.2109999999999999</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="37">
         <v>2.3239999999999998</v>
       </c>
-      <c r="K26" s="68">
+      <c r="K26" s="37">
         <v>-91.367000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="21">
         <v>0</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="21">
         <v>0</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="21">
         <v>1.595</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="21">
         <v>0.155</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="72">
+      <c r="D28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
         <v>1.4159999999999999</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28">
         <v>0.91200000000000003</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28">
         <v>1.552</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28">
         <v>7.0250000000000004</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28">
         <v>6.117</v>
       </c>
-      <c r="K28" s="72">
+      <c r="K28">
         <v>63.78</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="73" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="25">
         <v>2E-3</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="25">
         <v>2E-3</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="25">
         <v>0.98299999999999998</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="25">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="68">
+      <c r="D30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="37">
         <v>1.619</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="37">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="37">
         <v>3.355</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="37">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="37">
         <v>7.0250000000000004</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="37">
         <v>5.94</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="37">
         <v>63.487000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="64" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="21">
         <v>0.01</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="21">
         <v>1.6739999999999999</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="21">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="72">
+      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32">
         <v>1.7749999999999999</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32">
         <v>7.0250000000000004</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32">
         <v>0.52815999999999996</v>
       </c>
-      <c r="K32" s="72">
+      <c r="K32">
         <v>40.817999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="73" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="25">
         <v>656.41899999999998</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="25">
         <v>64.161000000000001</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="25">
         <v>10.231</v>
       </c>
-      <c r="H33" s="76">
+      <c r="H33" s="36">
         <v>1.84E-5</v>
       </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -11584,40 +11517,37 @@
       <c r="K13" s="23">
         <v>18.218131</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="28"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O14" s="30"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="O16" s="5"/>
@@ -11711,7 +11641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3D1D31-31C8-5E44-BCAC-4CA8D339750E}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
@@ -11824,62 +11754,62 @@
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="47">
+      <c r="D4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="42">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="42">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="42">
         <v>1.7749999999999999</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="42">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="42">
         <v>7.0250000000000004</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="42">
         <v>0.52815999999999996</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="42">
         <v>40.817999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="71" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="44">
         <v>656.41899999999998</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="44">
         <v>64.161000000000001</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="44">
         <v>10.231</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="46">
         <v>1.84E-5</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12003,66 +11933,66 @@
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="66">
+      <c r="D4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="53">
         <v>1.619</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="53">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="53">
         <v>3.355</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="53">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="53">
         <v>7.0250000000000004</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="53">
         <v>5.94</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="53">
         <v>63.487000000000002</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="45">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="45">
         <v>0.01</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="45">
         <v>1.6739999999999999</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="45">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
@@ -12079,7 +12009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D35821A-569A-A647-8B87-B66C2D581CC7}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K5" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
@@ -12189,62 +12119,62 @@
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="47">
+      <c r="D4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="42">
         <v>1.4159999999999999</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="42">
         <v>0.91200000000000003</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="42">
         <v>1.552</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="42">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="42">
         <v>7.0250000000000004</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="42">
         <v>6.117</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="42">
         <v>63.78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="71" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="44">
         <v>2E-3</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="44">
         <v>2E-3</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="44">
         <v>0.98299999999999998</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="44">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12257,7 +12187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7073D8-C0C6-394C-96EB-E9AE005EAE04}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -12367,62 +12297,62 @@
       <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="D4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="43">
         <v>1.8626427000000001</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="43">
         <v>0.45600380000000001</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="43">
         <v>4.085</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="43">
         <v>4.6600000000000001E-3</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="43">
         <v>7.0247000000000002</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="43">
         <v>5.8619000000000003</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="43">
         <v>63.356000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="46">
         <v>7.7590000000000005E-4</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="46">
         <v>6.7630000000000001E-4</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="46">
         <v>1.147</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="46">
         <v>0.28897</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="25"/>
     </row>
   </sheetData>
@@ -12484,102 +12414,102 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="D2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>380.31808000000001</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="48">
         <v>68.586340000000007</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>5.5449999999999999</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>8.6399999999999997E-4</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>131455</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="48">
         <v>130542</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <v>117.78</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="41">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>-2.2519999999999998E-2</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="52">
         <v>0.10172</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="52">
         <v>-0.221</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="52">
         <v>0.83113599999999999</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="D4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="39">
         <v>5.9429999999999996</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="39">
         <v>0.1883</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="39">
         <v>31.559000000000001</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="39">
         <v>8.2900000000000001E-9</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="39">
         <v>1.2725</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="39">
         <v>1.2655000000000001</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="39">
         <v>119.22</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
@@ -12588,21 +12518,21 @@
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="36">
         <v>-6.4029999999999995E-5</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="36">
         <v>2.7930000000000001E-4</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="36">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="36">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="25"/>
     </row>
   </sheetData>
@@ -12615,7 +12545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6218B4A3-3DF4-2142-B9F3-FB85A62C669B}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L3" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
@@ -12663,102 +12593,102 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="D2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48">
         <v>5.1379999999999999</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="48">
         <v>0.90639999999999998</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="48">
         <v>5.6680000000000001</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="48">
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <v>22.8</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="48">
         <v>22.797000000000001</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="48">
         <v>39.905000000000001</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>4.2330000000000003E-5</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="52">
         <v>1.3439999999999999E-3</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="52">
         <v>3.1E-2</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="52">
         <v>0.97575999999999996</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="D4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="39">
         <v>1.643</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="39">
         <v>0.1777</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="39">
         <v>9.2460000000000004</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="39">
         <v>3.5800000000000003E-5</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="38">
         <v>1.1612</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="38">
         <v>1.1612</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="38">
         <v>41.781999999999996</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
@@ -12767,16 +12697,16 @@
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="36">
         <v>6.3840000000000002E-6</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="36">
         <v>2.6360000000000001E-4</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="36">
         <v>2.4E-2</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="36">
         <v>0.98099999999999998</v>
       </c>
       <c r="I5" s="25"/>

--- a/SUMMARY SHEETS/glm_results.xlsx
+++ b/SUMMARY SHEETS/glm_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEC05D4-04DE-BE41-9240-BA754E8623B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D01A93-2F77-C540-A116-3F4FC976B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1320" windowWidth="28060" windowHeight="14320" firstSheet="3" activeTab="3" xr2:uid="{18C3824A-8AA6-D549-87E3-8BCC7E0A6946}"/>
+    <workbookView xWindow="740" yWindow="1320" windowWidth="28060" windowHeight="14320" firstSheet="3" activeTab="5" xr2:uid="{18C3824A-8AA6-D549-87E3-8BCC7E0A6946}"/>
   </bookViews>
   <sheets>
     <sheet name="original totals" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7791,7 +7791,7 @@
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="50">
@@ -7853,7 +7853,7 @@
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="50">
@@ -7915,7 +7915,7 @@
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="50">
@@ -7977,7 +7977,7 @@
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="50">
@@ -8039,7 +8039,7 @@
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="50">
@@ -9213,10 +9213,10 @@
       <c r="L22" s="6">
         <v>8</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
@@ -9241,10 +9241,10 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -9451,28 +9451,28 @@
       <c r="Q36" s="29"/>
     </row>
     <row r="53" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="J53" s="58" t="s">
+      <c r="J53" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="K53" s="58" t="s">
+      <c r="K53" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="L53" s="58" t="s">
+      <c r="L53" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="M53" s="58" t="s">
+      <c r="M53" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N53" s="58" t="s">
+      <c r="N53" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="O53" s="58" t="s">
+      <c r="O53" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="P53" s="58" t="s">
+      <c r="P53" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="Q53" s="58" t="s">
+      <c r="Q53" s="59" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9480,14 +9480,14 @@
       <c r="I54" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
     </row>
     <row r="55" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I55" s="28"/>
@@ -11517,25 +11517,25 @@
       <c r="K13" s="23">
         <v>18.218131</v>
       </c>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="O14" s="28"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="O15" s="28"/>
@@ -11641,7 +11641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3D1D31-31C8-5E44-BCAC-4CA8D339750E}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
@@ -12009,7 +12009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D35821A-569A-A647-8B87-B66C2D581CC7}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
